--- a/src-electron/sqllite3/sql/sqllite/init/_data.xlsx
+++ b/src-electron/sqllite3/sql/sqllite/init/_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\workspace\qe\src-electron\sqllite3\sql\sqllite\init\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4017A8-3EB4-4EAF-AE35-C5D29C6D8F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F3FFFB-E5D2-48AD-B1EB-AFC8731D80BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="3225" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TB_MENU" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -373,6 +373,22 @@
   </si>
   <si>
     <t>/data/dc-connect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sampleMarkdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Markdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sample/markdown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J2:J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1255,7 +1271,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>35</v>
@@ -1274,7 +1290,7 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT OR REPLACE INTO TB_MENU VALUES (14,'adminCode','admin','User','/admin/code','code','N',2,'Y');</v>
+        <v>INSERT OR REPLACE INTO TB_MENU VALUES (14,'adminCode','admin','Code','/admin/code','code','N',2,'Y');</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1440,6 +1456,39 @@
       <c r="J21" t="str">
         <f t="shared" si="0"/>
         <v>INSERT OR REPLACE INTO TB_MENU VALUES (19,'sampleSingleSearchFormSide','sample','Single Search Form &amp; Side','/sample/single-search-form-side','search','N',3,'Y');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" ref="J22" si="2">"INSERT OR REPLACE INTO TB_MENU VALUES ("&amp;A22&amp;",'"&amp;B22&amp;"','"&amp;C22&amp;"','"&amp;D22&amp;"','"&amp;E22&amp;"','"&amp;F22&amp;"','"&amp;G22&amp;"',"&amp;H22&amp;",'"&amp; I22 &amp;"');"</f>
+        <v>INSERT OR REPLACE INTO TB_MENU VALUES (20,'sampleMarkdown','sample','Markdown','/sample/markdown','search','N',4,'Y');</v>
       </c>
     </row>
   </sheetData>
@@ -1581,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CD1B27-D258-4510-B809-3E188B20B309}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1642,7 +1691,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E37" si="0">"INSERT OR REPLACE INTO TB_AUTH VALUES ("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"');"</f>
+        <f t="shared" ref="E3:E39" si="0">"INSERT OR REPLACE INTO TB_AUTH VALUES ("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"');"</f>
         <v>INSERT OR REPLACE INTO TB_AUTH VALUES (2,'MENU','project','USER');</v>
       </c>
     </row>
@@ -2187,7 +2236,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="3">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2205,39 +2254,39 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT OR REPLACE INTO TB_AUTH VALUES (34,'USER','admin','USER');</v>
+        <v>INSERT OR REPLACE INTO TB_AUTH VALUES (34,'MENU','sampleMarkdown','USER');</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="3">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT OR REPLACE INTO TB_AUTH VALUES (35,'USER','user01','USER');</v>
+        <v>INSERT OR REPLACE INTO TB_AUTH VALUES (35,'MENU','sampleMarkdown','ADMIN');</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2247,15 +2296,51 @@
       <c r="B37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT OR REPLACE INTO TB_AUTH VALUES (36,'USER','admin','USER');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT OR REPLACE INTO TB_AUTH VALUES (37,'USER','user01','USER');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT OR REPLACE INTO TB_AUTH VALUES (36,'USER','user02','ADMIN');</v>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT OR REPLACE INTO TB_AUTH VALUES (38,'USER','user02','ADMIN');</v>
       </c>
     </row>
   </sheetData>

--- a/src-electron/sqllite3/sql/sqllite/init/_data.xlsx
+++ b/src-electron/sqllite3/sql/sqllite/init/_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\workspace\qe\src-electron\sqllite3\sql\sqllite\init\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F3FFFB-E5D2-48AD-B1EB-AFC8731D80BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885493AF-7A24-458D-84A3-40F14866C960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TB_MENU" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -389,6 +387,14 @@
   </si>
   <si>
     <t>/sample/markdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM TB_AUTH;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM TB_MENU;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -496,11 +502,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -515,6 +532,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -799,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -844,6 +864,9 @@
       </c>
       <c r="I1" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1632,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CD1B27-D258-4510-B809-3E188B20B309}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1657,6 +1680,9 @@
       </c>
       <c r="D1" s="5" t="s">
         <v>57</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:5">
